--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2286.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2286.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.13427638184041</v>
+        <v>1.182674288749695</v>
       </c>
       <c r="B1">
-        <v>3.249566407215241</v>
+        <v>2.407591342926025</v>
       </c>
       <c r="C1">
-        <v>3.873514642661398</v>
+        <v>3.83289098739624</v>
       </c>
       <c r="D1">
-        <v>3.527053665344582</v>
+        <v>2.139377593994141</v>
       </c>
       <c r="E1">
-        <v>1.211929377507851</v>
+        <v>1.200313806533813</v>
       </c>
     </row>
   </sheetData>
